--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CB223B-B1B5-4615-B358-B350BB7CEA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D56F0-E637-4DE7-9701-3E80E503DC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>PickUpStore_continuePayment</t>
+  </si>
+  <si>
+    <t>WAIT</t>
   </si>
 </sst>
 </file>
@@ -674,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -821,22 +824,16 @@
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>49</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
@@ -844,52 +841,54 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>9</v>
@@ -902,9 +901,9 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3"/>
@@ -915,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
@@ -924,77 +923,75 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="3" t="s">
-        <v>11</v>
+      <c r="B22" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
-        <v>13</v>
+      <c r="B23" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
@@ -1002,51 +999,51 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
@@ -1054,28 +1051,28 @@
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1084,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1099,28 +1096,28 @@
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1129,35 +1126,37 @@
         <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
-      <c r="B34" s="3" t="s">
-        <v>12</v>
+      <c r="B34" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
@@ -1167,10 +1166,10 @@
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -1179,16 +1178,29 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C38" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="3" t="s">
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1495,6 +1507,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1691,22 +1718,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1723,21 +1752,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86D56F0-E637-4DE7-9701-3E80E503DC24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BDBD9-0D0D-4BC7-BF24-D0E200F24899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -832,8 +832,8 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>49</v>
@@ -841,14 +841,12 @@
       <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>49</v>
@@ -856,52 +854,54 @@
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
-      <c r="B15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -914,9 +914,9 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3"/>
@@ -927,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -936,77 +936,75 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
-      <c r="B23" s="3" t="s">
-        <v>11</v>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
+      <c r="B24" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
@@ -1014,51 +1012,51 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
+      <c r="B28" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
@@ -1066,28 +1064,28 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1096,13 +1094,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1111,28 +1109,28 @@
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1141,35 +1139,37 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3"/>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
+      <c r="B35" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
@@ -1179,10 +1179,10 @@
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1191,16 +1191,29 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1215,7 +1228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
@@ -1507,21 +1520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1718,24 +1716,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1752,4 +1748,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BDBD9-0D0D-4BC7-BF24-D0E200F24899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1CB5B-A9EE-47A8-B3E0-0A610B419A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC14_CheckOut_PickUp_InStore" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
   <si>
     <t>TestCase</t>
   </si>
@@ -130,9 +130,6 @@
     <t>PRESS_ENTER</t>
   </si>
   <si>
-    <t>PDPAddtocart</t>
-  </si>
-  <si>
     <t>MinicartPopup</t>
   </si>
   <si>
@@ -232,31 +229,31 @@
     <t>PDPItemHeader_PickUpInStore</t>
   </si>
   <si>
-    <t>Guess Devyn Large Satchel Bag</t>
-  </si>
-  <si>
-    <t>PDP_PickUpInStoreOption</t>
-  </si>
-  <si>
-    <t>CLICK_JAVASCRIPT_ELEMENT</t>
-  </si>
-  <si>
     <t>OrderReviewHeader_PickUpStore</t>
   </si>
   <si>
-    <t>Pick Up In Store</t>
-  </si>
-  <si>
     <t>OrderReviewHeader2_PickUpStore</t>
   </si>
   <si>
-    <t>Pick Up Person</t>
-  </si>
-  <si>
     <t>PickUpStore_continuePayment</t>
   </si>
   <si>
     <t>WAIT</t>
+  </si>
+  <si>
+    <t>Michael Kors Goldtone Tortoise Acetate Bangle</t>
+  </si>
+  <si>
+    <t>PDP_ADDTOCART_Button</t>
+  </si>
+  <si>
+    <t>PDP_SaveContinue</t>
+  </si>
+  <si>
+    <t>Ship To</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
   </si>
 </sst>
 </file>
@@ -679,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -711,7 +708,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -824,7 +821,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -836,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -849,13 +846,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -864,7 +861,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -877,19 +874,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -898,10 +895,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -914,7 +911,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -927,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -940,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -950,7 +947,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -962,7 +959,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -972,7 +969,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -984,13 +981,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -999,7 +996,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1012,13 +1009,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1027,19 +1024,19 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1051,7 +1048,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1064,13 +1061,13 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1079,13 +1076,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1094,13 +1091,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1109,13 +1106,13 @@
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1124,13 +1121,13 @@
         <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1139,13 +1136,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1154,13 +1151,13 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1182,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1228,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B34"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1320,15 +1317,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B11" s="3">
-        <v>8342610</v>
+        <v>7417396</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -1336,15 +1333,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="b">
         <v>1</v>
@@ -1352,7 +1349,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>1</v>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -1376,7 +1373,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -1384,7 +1381,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>1</v>
@@ -1392,7 +1389,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="3">
         <v>8.5</v>
@@ -1400,7 +1397,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="3" t="b">
         <v>1</v>
@@ -1408,7 +1405,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1416,15 +1413,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1432,7 +1429,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1440,7 +1437,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1448,23 +1445,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1472,7 +1469,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1480,7 +1477,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1488,26 +1485,26 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1520,6 +1517,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1716,22 +1722,21 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1750,19 +1755,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B1CB5B-A9EE-47A8-B3E0-0A610B419A0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BDBD9-0D0D-4BC7-BF24-D0E200F24899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TC14_CheckOut_PickUp_InStore" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -130,6 +130,9 @@
     <t>PRESS_ENTER</t>
   </si>
   <si>
+    <t>PDPAddtocart</t>
+  </si>
+  <si>
     <t>MinicartPopup</t>
   </si>
   <si>
@@ -229,31 +232,31 @@
     <t>PDPItemHeader_PickUpInStore</t>
   </si>
   <si>
+    <t>Guess Devyn Large Satchel Bag</t>
+  </si>
+  <si>
+    <t>PDP_PickUpInStoreOption</t>
+  </si>
+  <si>
+    <t>CLICK_JAVASCRIPT_ELEMENT</t>
+  </si>
+  <si>
     <t>OrderReviewHeader_PickUpStore</t>
   </si>
   <si>
+    <t>Pick Up In Store</t>
+  </si>
+  <si>
     <t>OrderReviewHeader2_PickUpStore</t>
   </si>
   <si>
+    <t>Pick Up Person</t>
+  </si>
+  <si>
     <t>PickUpStore_continuePayment</t>
   </si>
   <si>
     <t>WAIT</t>
-  </si>
-  <si>
-    <t>Michael Kors Goldtone Tortoise Acetate Bangle</t>
-  </si>
-  <si>
-    <t>PDP_ADDTOCART_Button</t>
-  </si>
-  <si>
-    <t>PDP_SaveContinue</t>
-  </si>
-  <si>
-    <t>Ship To</t>
-  </si>
-  <si>
-    <t>Delivery Method</t>
   </si>
 </sst>
 </file>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -708,7 +711,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -821,7 +824,7 @@
     <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -833,7 +836,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>9</v>
@@ -846,13 +849,13 @@
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -861,7 +864,7 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>9</v>
@@ -874,19 +877,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="4"/>
@@ -895,10 +898,10 @@
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>9</v>
@@ -911,7 +914,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -924,7 +927,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -937,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -947,7 +950,7 @@
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -959,7 +962,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
@@ -969,7 +972,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -981,13 +984,13 @@
         <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -996,7 +999,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -1009,13 +1012,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1024,19 +1027,19 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1048,7 +1051,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
@@ -1061,13 +1064,13 @@
         <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1076,13 +1079,13 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1091,13 +1094,13 @@
         <v>18</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1106,13 +1109,13 @@
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1121,13 +1124,13 @@
         <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1136,13 +1139,13 @@
         <v>13</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1151,13 +1154,13 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1179,7 +1182,7 @@
         <v>11</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1225,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1317,15 +1320,15 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B11" s="3">
-        <v>7417396</v>
+        <v>8342610</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="b">
         <v>1</v>
@@ -1333,15 +1336,15 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="3" t="b">
         <v>1</v>
@@ -1349,7 +1352,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3" t="b">
         <v>1</v>
@@ -1357,7 +1360,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3" t="b">
         <v>1</v>
@@ -1365,7 +1368,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="3" t="b">
         <v>1</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3" t="b">
         <v>1</v>
@@ -1381,7 +1384,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" s="3" t="b">
         <v>1</v>
@@ -1389,7 +1392,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" s="3">
         <v>8.5</v>
@@ -1397,7 +1400,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" s="3" t="b">
         <v>1</v>
@@ -1405,7 +1408,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" s="3" t="b">
         <v>1</v>
@@ -1413,15 +1416,15 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" s="3" t="b">
         <v>1</v>
@@ -1429,7 +1432,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" s="3" t="b">
         <v>1</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3">
         <v>123</v>
@@ -1445,23 +1448,23 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="3" t="b">
         <v>1</v>
@@ -1469,7 +1472,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="3" t="b">
         <v>1</v>
@@ -1477,7 +1480,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3" t="b">
         <v>1</v>
@@ -1485,26 +1488,26 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1517,15 +1520,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1722,21 +1716,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1755,11 +1750,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
+++ b/Input_files/Actual_testcases/AFEES/ALL_PAGES/END_TO_END/TC14_Verify_CheckOut_PickUp_InStore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ROhit\Rohit\Automation\Demo\AFEES\Input_files\Actual_testcases\AFEES\ALL_PAGES\END_TO_END\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70BDBD9-0D0D-4BC7-BF24-D0E200F24899}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E82560-366B-45AC-B8F0-0CEE6ECCB51E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="76">
   <si>
     <t>TestCase</t>
   </si>
@@ -677,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -861,60 +861,56 @@
     <row r="13" spans="1:5">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3"/>
+        <v>75</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>66</v>
-      </c>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>9</v>
@@ -927,9 +923,9 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3"/>
@@ -940,7 +936,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -949,77 +945,75 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3"/>
-      <c r="B24" s="3" t="s">
-        <v>11</v>
+      <c r="B24" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
-        <v>13</v>
+      <c r="B25" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3"/>
@@ -1027,51 +1021,51 @@
         <v>13</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3"/>
-      <c r="B28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
+      <c r="B29" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>57</v>
-      </c>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3"/>
@@ -1079,28 +1073,28 @@
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1109,13 +1103,13 @@
         <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1124,28 +1118,28 @@
         <v>18</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1154,35 +1148,37 @@
         <v>13</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3"/>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
+      <c r="B36" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
@@ -1192,10 +1188,10 @@
     <row r="38" spans="1:5">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -1204,16 +1200,29 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="D40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1228,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:B34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1520,6 +1529,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006B9247FD3B8DCE459B42E632A3609B44" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3308c0b5f2a874e4881ed9e3e8048963">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1a153bf7-9590-4a62-91b6-0515f1c483dc" xmlns:ns3="fd27ab66-8f5a-4733-8e24-c3cb82244a05" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afaafca1b8c32e4865f6f60996200392" ns2:_="" ns3:_="">
     <xsd:import namespace="1a153bf7-9590-4a62-91b6-0515f1c483dc"/>
@@ -1716,22 +1740,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73F47607-34AD-43FE-B910-18186D4DE9CC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1748,21 +1774,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{201F13FF-ABE4-451A-88FD-FA1FE3D91855}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75986BA1-ED37-4C63-93A8-4C325EA50F3E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>